--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumTraining\ParabankTestNGFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48CB92-EDB4-4992-A42B-A7C316320A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC98E77-490E-4197-B59A-20B6A90AB3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33855" yWindow="5250" windowWidth="22875" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="verifyApplicationLogin" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -34,7 +34,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Admin</t>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E795157-4305-466D-A1B7-05CDFEF22922}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,9 +386,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
